--- a/日志.xlsx
+++ b/日志.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B7E02C-0FF8-4AC4-87BF-BDFFA8CC218F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8686C5-731D-4033-A2ED-27D6516221B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="记录" sheetId="1" r:id="rId1"/>
-    <sheet name="规划" sheetId="2" r:id="rId2"/>
+    <sheet name="规划" sheetId="2" r:id="rId1"/>
+    <sheet name="记录" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lxml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>selenuim模拟浏览器操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,6 +93,78 @@
   </si>
   <si>
     <t>创建项目，准备发送一个知网页面，爬取其简介及其他信息！制定了一些规划！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分步完成了切换页面，读取数据（摘要，关键字）并整合在一起！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行变量保存到word文档！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用列表获取所有a标签进行循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑到格式问题，保存到txt记事本后续导入到word，但后续若想更为方便可加入word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行各部分组合，可运行版本已经完成，后续可通过QT5设计界面！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可有可无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxml/xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没设计过不知道有什么详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +195,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +214,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -309,32 +379,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -342,44 +505,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -393,7 +526,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,139 +889,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA286C2-0A33-4629-8D78-6FB0EE35F53A}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="99.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>44961</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA286C2-0A33-4629-8D78-6FB0EE35F53A}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="26" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="10.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="2.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>13</v>
+      <c r="D5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="17">
-        <v>2</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="39">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="15"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21">
-        <v>3</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="1:5" ht="41.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="27">
-        <v>1</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
+    <row r="7" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B4"/>
@@ -817,4 +1028,90 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="99.875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="9" style="34"/>
+    <col min="4" max="4" width="32.5" style="35" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>44961</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="30">
+        <v>44963</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="30">
+        <v>44964</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/日志.xlsx
+++ b/日志.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8686C5-731D-4033-A2ED-27D6516221B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBA4048-34C8-401B-BA02-50CA174BD454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="规划" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,10 @@
   </si>
   <si>
     <t>没设计过不知道有什么详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入ini配置，设置网页网址等信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,33 +563,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -608,6 +585,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA286C2-0A33-4629-8D78-6FB0EE35F53A}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -914,10 +918,10 @@
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
@@ -929,10 +933,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5">
@@ -949,8 +953,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="6">
         <v>2</v>
       </c>
@@ -965,8 +969,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="7">
         <v>3</v>
       </c>
@@ -1007,13 +1011,13 @@
       <c r="B6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="30">
         <v>1</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="29" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="15"/>
@@ -1032,32 +1036,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="99.875" style="37" customWidth="1"/>
-    <col min="3" max="3" width="9" style="34"/>
-    <col min="4" max="4" width="32.5" style="35" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="34"/>
+    <col min="2" max="2" width="99.875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="9" style="25"/>
+    <col min="4" max="4" width="32.5" style="26" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="23" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1065,45 +1069,53 @@
       <c r="A2" s="2">
         <v>44961</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30">
+      <c r="A3" s="38">
         <v>44963</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
+      <c r="A5" s="38">
         <v>44964</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="27" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
